--- a/INTLINE/data/924/SZSE/SZSE Main Board - Daily.xlsx
+++ b/INTLINE/data/924/SZSE/SZSE Main Board - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IXI3"/>
+  <dimension ref="A1:IXP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33939,15 +33939,50 @@
       </c>
       <c r="IXG1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="IXH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="IXI1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="IXJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
+      </c>
+      <c r="IXK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
+      </c>
+      <c r="IXL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="IXM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
+      </c>
+      <c r="IXN1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="IXH1" s="1" t="inlineStr">
+      <c r="IXO1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="IXI1" s="1" t="inlineStr">
+      <c r="IXP1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -53216,17 +53251,38 @@
       <c r="IXF2" t="n">
         <v>2077.48</v>
       </c>
-      <c r="IXG2" t="inlineStr">
+      <c r="IXG2" t="n">
+        <v>2012.72</v>
+      </c>
+      <c r="IXH2" t="n">
+        <v>2002.55</v>
+      </c>
+      <c r="IXI2" t="n">
+        <v>1872.64</v>
+      </c>
+      <c r="IXJ2" t="n">
+        <v>1833.11</v>
+      </c>
+      <c r="IXK2" t="n">
+        <v>1905.5</v>
+      </c>
+      <c r="IXL2" t="n">
+        <v>1891.96</v>
+      </c>
+      <c r="IXM2" t="n">
+        <v>1965.65</v>
+      </c>
+      <c r="IXN2" t="inlineStr">
         <is>
           <t>SZSEA</t>
         </is>
       </c>
-      <c r="IXH2" t="inlineStr">
+      <c r="IXO2" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IXI2" t="inlineStr">
+      <c r="IXP2" t="inlineStr">
         <is>
           <t>Index: 1994.10.04=100</t>
         </is>
@@ -72439,17 +72495,38 @@
       <c r="IXF3" t="n">
         <v>1059.75</v>
       </c>
-      <c r="IXG3" t="inlineStr">
+      <c r="IXG3" t="n">
+        <v>1046.99</v>
+      </c>
+      <c r="IXH3" t="n">
+        <v>1051.53</v>
+      </c>
+      <c r="IXI3" t="n">
+        <v>1013.75</v>
+      </c>
+      <c r="IXJ3" t="n">
+        <v>1005.1</v>
+      </c>
+      <c r="IXK3" t="n">
+        <v>1012.82</v>
+      </c>
+      <c r="IXL3" t="n">
+        <v>1015.87</v>
+      </c>
+      <c r="IXM3" t="n">
+        <v>1044.47</v>
+      </c>
+      <c r="IXN3" t="inlineStr">
         <is>
           <t>SZSEB</t>
         </is>
       </c>
-      <c r="IXH3" t="inlineStr">
+      <c r="IXO3" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IXI3" t="inlineStr">
+      <c r="IXP3" t="inlineStr">
         <is>
           <t>Index: 1992.02.28=100</t>
         </is>

--- a/INTLINE/data/924/SZSE/SZSE Main Board - Daily.xlsx
+++ b/INTLINE/data/924/SZSE/SZSE Main Board - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IYX3"/>
+  <dimension ref="A1:IZA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34144,15 +34144,30 @@
       </c>
       <c r="IYV1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="IYW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="IYX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="IYY1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="IYW1" s="1" t="inlineStr">
+      <c r="IYZ1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="IYX1" s="1" t="inlineStr">
+      <c r="IZA1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -53542,19 +53557,28 @@
         <v>2246.54</v>
       </c>
       <c r="IYU2" t="n">
-        <v>2239.6</v>
-      </c>
-      <c r="IYV2" t="inlineStr">
+        <v>2217.74</v>
+      </c>
+      <c r="IYV2" t="n">
+        <v>2264</v>
+      </c>
+      <c r="IYW2" t="n">
+        <v>2294.02</v>
+      </c>
+      <c r="IYX2" t="n">
+        <v>2319.67</v>
+      </c>
+      <c r="IYY2" t="inlineStr">
         <is>
           <t>SZSEA</t>
         </is>
       </c>
-      <c r="IYW2" t="inlineStr">
+      <c r="IYZ2" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IYX2" t="inlineStr">
+      <c r="IZA2" t="inlineStr">
         <is>
           <t>Index: 1994.10.04=100</t>
         </is>
@@ -72888,19 +72912,28 @@
         <v>1167.99</v>
       </c>
       <c r="IYU3" t="n">
-        <v>1171.49</v>
-      </c>
-      <c r="IYV3" t="inlineStr">
+        <v>1171.25</v>
+      </c>
+      <c r="IYV3" t="n">
+        <v>1183.28</v>
+      </c>
+      <c r="IYW3" t="n">
+        <v>1188.16</v>
+      </c>
+      <c r="IYX3" t="n">
+        <v>1199.83</v>
+      </c>
+      <c r="IYY3" t="inlineStr">
         <is>
           <t>SZSEB</t>
         </is>
       </c>
-      <c r="IYW3" t="inlineStr">
+      <c r="IYZ3" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IYX3" t="inlineStr">
+      <c r="IZA3" t="inlineStr">
         <is>
           <t>Index: 1992.02.28=100</t>
         </is>
